--- a/data/fact_data/Beed/beed_sec_Sep_19.xlsx
+++ b/data/fact_data/Beed/beed_sec_Sep_19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nitin.karmuse/Desktop/win_medicare/data/fact_data/Beed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B653112A-873A-5B40-9574-BB0575149664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F12AC4-CB71-1240-8FB9-77C79B441949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="beed_Arun_Sep_19" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="87">
   <si>
     <t>Betadine Sol. 500ml              5%</t>
   </si>
@@ -108,9 +108,6 @@
   </si>
   <si>
     <t>Gonablok 200mg 3*10's</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          PRODUCT</t>
   </si>
   <si>
     <t>Myospaz D          5*10's</t>
@@ -266,9 +263,6 @@
     <t>TOTAL PHYSIOMER :</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>region_name</t>
   </si>
   <si>
@@ -296,10 +290,16 @@
     <t>Surveshawar</t>
   </si>
   <si>
-    <t>Anil</t>
+    <t>Sep</t>
   </si>
   <si>
-    <t>Sep</t>
+    <t>Anil Kumar</t>
+  </si>
+  <si>
+    <t>product_name</t>
+  </si>
+  <si>
+    <t>sec</t>
   </si>
 </sst>
 </file>
@@ -1875,9 +1875,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
@@ -1891,31 +1889,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" s="26" t="s">
+      <c r="G1" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="I1" s="26" t="s">
         <v>80</v>
-      </c>
-      <c r="H1" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="I1" s="26" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1923,10 +1921,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D2" s="29">
         <v>6</v>
@@ -1942,7 +1940,7 @@
         <v>810</v>
       </c>
       <c r="H2" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I2" s="28">
         <v>2019</v>
@@ -1953,10 +1951,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" s="3">
         <v>0</v>
@@ -1972,7 +1970,7 @@
         <v>948</v>
       </c>
       <c r="H3" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I3" s="28">
         <v>2019</v>
@@ -1983,10 +1981,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4" s="3">
         <v>43</v>
@@ -2002,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I4" s="28">
         <v>2019</v>
@@ -2013,10 +2011,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5" s="3">
         <v>0</v>
@@ -2032,7 +2030,7 @@
         <v>22016</v>
       </c>
       <c r="H5" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I5" s="28">
         <v>2019</v>
@@ -2043,10 +2041,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6" s="3">
         <v>1</v>
@@ -2062,7 +2060,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I6" s="28">
         <v>2019</v>
@@ -2073,10 +2071,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D7" s="3">
         <v>17</v>
@@ -2092,7 +2090,7 @@
         <v>976</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I7" s="28">
         <v>2019</v>
@@ -2103,10 +2101,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D8" s="3">
         <v>34</v>
@@ -2122,7 +2120,7 @@
         <v>264</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I8" s="28">
         <v>2019</v>
@@ -2133,10 +2131,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D9" s="3">
         <v>140</v>
@@ -2152,7 +2150,7 @@
         <v>2052</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I9" s="28">
         <v>2019</v>
@@ -2160,13 +2158,13 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -2178,7 +2176,7 @@
         <v>1260</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I10" s="28">
         <v>2019</v>
@@ -2186,13 +2184,13 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -2204,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I11" s="28">
         <v>2019</v>
@@ -2215,10 +2213,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -2230,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I12" s="28">
         <v>2019</v>
@@ -2241,10 +2239,10 @@
         <v>9</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D13" s="3">
         <v>623</v>
@@ -2260,7 +2258,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I13" s="28">
         <v>2019</v>
@@ -2271,10 +2269,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D14" s="3">
         <v>55</v>
@@ -2290,7 +2288,7 @@
         <v>18408</v>
       </c>
       <c r="H14" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I14" s="28">
         <v>2019</v>
@@ -2298,13 +2296,13 @@
     </row>
     <row r="15" spans="1:9" ht="14">
       <c r="A15" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
@@ -2320,7 +2318,7 @@
         <v>588</v>
       </c>
       <c r="H15" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I15" s="28">
         <v>2019</v>
@@ -2328,13 +2326,13 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -2343,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I16" s="28">
         <v>2019</v>
@@ -2351,13 +2349,13 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D17" s="3">
         <v>524</v>
@@ -2373,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I17" s="28">
         <v>2019</v>
@@ -2381,13 +2379,13 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D18" s="3">
         <v>369</v>
@@ -2403,7 +2401,7 @@
         <v>18718</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I18" s="28">
         <v>2019</v>
@@ -2411,13 +2409,13 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -2429,7 +2427,7 @@
         <v>25725</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I19" s="28">
         <v>2019</v>
@@ -2437,13 +2435,13 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -2455,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I20" s="28">
         <v>2019</v>
@@ -2463,13 +2461,13 @@
     </row>
     <row r="21" spans="1:9" ht="14">
       <c r="A21" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="3">
         <v>0</v>
@@ -2485,7 +2483,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I21" s="28">
         <v>2019</v>
@@ -2493,13 +2491,13 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -2508,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I22" s="28">
         <v>2019</v>
@@ -2519,10 +2517,10 @@
         <v>11</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D23" s="3">
         <v>21</v>
@@ -2538,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I23" s="28">
         <v>2019</v>
@@ -2546,13 +2544,13 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D24" s="3">
         <v>0</v>
@@ -2568,7 +2566,7 @@
         <v>612</v>
       </c>
       <c r="H24" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I24" s="28">
         <v>2019</v>
@@ -2579,10 +2577,10 @@
         <v>12</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D25" s="3">
         <v>39</v>
@@ -2598,7 +2596,7 @@
         <v>240</v>
       </c>
       <c r="H25" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I25" s="28">
         <v>2019</v>
@@ -2609,10 +2607,10 @@
         <v>13</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D26" s="3">
         <v>28</v>
@@ -2628,7 +2626,7 @@
         <v>10080</v>
       </c>
       <c r="H26" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I26" s="28">
         <v>2019</v>
@@ -2636,13 +2634,13 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -2654,7 +2652,7 @@
         <v>5810</v>
       </c>
       <c r="H27" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I27" s="28">
         <v>2019</v>
@@ -2662,13 +2660,13 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -2680,7 +2678,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I28" s="28">
         <v>2019</v>
@@ -2688,13 +2686,13 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -2706,7 +2704,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I29" s="28">
         <v>2019</v>
@@ -2714,13 +2712,13 @@
     </row>
     <row r="30" spans="1:9" ht="14">
       <c r="A30" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D30" s="3">
         <v>0</v>
@@ -2736,7 +2734,7 @@
         <v>0</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I30" s="28">
         <v>2019</v>
@@ -2744,13 +2742,13 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D31" s="3">
         <v>0</v>
@@ -2766,7 +2764,7 @@
         <v>2532</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I31" s="28">
         <v>2019</v>
@@ -2774,13 +2772,13 @@
     </row>
     <row r="32" spans="1:9" ht="14">
       <c r="A32" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D32" s="3">
         <v>0</v>
@@ -2796,7 +2794,7 @@
         <v>1578</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I32" s="28">
         <v>2019</v>
@@ -2804,13 +2802,13 @@
     </row>
     <row r="33" spans="1:9" ht="14">
       <c r="A33" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D33" s="3">
         <v>1</v>
@@ -2826,7 +2824,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I33" s="28">
         <v>2019</v>
@@ -2837,10 +2835,10 @@
         <v>14</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D34" s="3">
         <v>0</v>
@@ -2856,7 +2854,7 @@
         <v>6041</v>
       </c>
       <c r="H34" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I34" s="28">
         <v>2019</v>
@@ -2864,13 +2862,13 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D35" s="3">
         <v>0</v>
@@ -2883,7 +2881,7 @@
         <v>0</v>
       </c>
       <c r="H35" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I35" s="28">
         <v>2019</v>
@@ -2894,10 +2892,10 @@
         <v>15</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -2909,7 +2907,7 @@
         <v>1136</v>
       </c>
       <c r="H36" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I36" s="28">
         <v>2019</v>
@@ -2920,10 +2918,10 @@
         <v>16</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D37" s="3">
         <v>1</v>
@@ -2939,7 +2937,7 @@
         <v>0</v>
       </c>
       <c r="H37" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I37" s="28">
         <v>2019</v>
@@ -2950,10 +2948,10 @@
         <v>17</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D38" s="3">
         <v>1</v>
@@ -2969,7 +2967,7 @@
         <v>2865</v>
       </c>
       <c r="H38" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I38" s="28">
         <v>2019</v>
@@ -2977,13 +2975,13 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D39" s="3">
         <v>6</v>
@@ -2999,7 +2997,7 @@
         <v>1008</v>
       </c>
       <c r="H39" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I39" s="28">
         <v>2019</v>
@@ -3010,10 +3008,10 @@
         <v>18</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D40" s="3">
         <v>4</v>
@@ -3029,7 +3027,7 @@
         <v>18018</v>
       </c>
       <c r="H40" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I40" s="28">
         <v>2019</v>
@@ -3040,10 +3038,10 @@
         <v>19</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D41" s="3">
         <v>2</v>
@@ -3059,7 +3057,7 @@
         <v>12222</v>
       </c>
       <c r="H41" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I41" s="28">
         <v>2019</v>
@@ -3067,13 +3065,13 @@
     </row>
     <row r="42" spans="1:9" ht="14">
       <c r="A42" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D42" s="3">
         <v>1</v>
@@ -3089,7 +3087,7 @@
         <v>5080</v>
       </c>
       <c r="H42" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I42" s="28">
         <v>2019</v>
@@ -3097,13 +3095,13 @@
     </row>
     <row r="43" spans="1:9" ht="14">
       <c r="A43" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D43" s="3">
         <v>0</v>
@@ -3119,7 +3117,7 @@
         <v>2368</v>
       </c>
       <c r="H43" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I43" s="28">
         <v>2019</v>
@@ -3127,13 +3125,13 @@
     </row>
     <row r="44" spans="1:9" ht="14">
       <c r="A44" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D44" s="3">
         <v>0</v>
@@ -3149,7 +3147,7 @@
         <v>755</v>
       </c>
       <c r="H44" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I44" s="28">
         <v>2019</v>
@@ -3157,13 +3155,13 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D45" s="3">
         <v>0</v>
@@ -3176,7 +3174,7 @@
         <v>0</v>
       </c>
       <c r="H45" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I45" s="28">
         <v>2019</v>
@@ -3184,13 +3182,13 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -3199,7 +3197,7 @@
         <v>0</v>
       </c>
       <c r="H46" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I46" s="28">
         <v>2019</v>
@@ -3210,10 +3208,10 @@
         <v>20</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -3225,7 +3223,7 @@
         <v>0</v>
       </c>
       <c r="H47" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I47" s="28">
         <v>2019</v>
@@ -3236,10 +3234,10 @@
         <v>21</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D48" s="3">
         <v>1</v>
@@ -3255,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="H48" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I48" s="28">
         <v>2019</v>
@@ -3266,10 +3264,10 @@
         <v>22</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D49" s="3">
         <v>5</v>
@@ -3285,7 +3283,7 @@
         <v>4906</v>
       </c>
       <c r="H49" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I49" s="28">
         <v>2019</v>
@@ -3293,13 +3291,13 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D50" s="3">
         <v>0</v>
@@ -3312,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="H50" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I50" s="28">
         <v>2019</v>
@@ -3320,13 +3318,13 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -3338,7 +3336,7 @@
         <v>484</v>
       </c>
       <c r="H51" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I51" s="28">
         <v>2019</v>
@@ -3346,13 +3344,13 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D52" s="3">
         <v>13</v>
@@ -3366,7 +3364,7 @@
         <v>0</v>
       </c>
       <c r="H52" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I52" s="28">
         <v>2019</v>
@@ -3374,13 +3372,13 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -3392,7 +3390,7 @@
         <v>6152</v>
       </c>
       <c r="H53" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I53" s="28">
         <v>2019</v>
@@ -3400,13 +3398,13 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D54" s="3">
         <v>3</v>
@@ -3420,7 +3418,7 @@
         <v>0</v>
       </c>
       <c r="H54" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I54" s="28">
         <v>2019</v>
@@ -3428,13 +3426,13 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -3446,7 +3444,7 @@
         <v>3100</v>
       </c>
       <c r="H55" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I55" s="28">
         <v>2019</v>
@@ -3454,13 +3452,13 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B56" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D56" s="3">
         <v>3</v>
@@ -3474,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="H56" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I56" s="28">
         <v>2019</v>
@@ -3482,13 +3480,13 @@
     </row>
     <row r="57" spans="1:9" ht="14">
       <c r="A57" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C57" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -3500,7 +3498,7 @@
         <v>294</v>
       </c>
       <c r="H57" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I57" s="28">
         <v>2019</v>
@@ -3508,13 +3506,13 @@
     </row>
     <row r="58" spans="1:9" ht="14">
       <c r="A58" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -3526,7 +3524,7 @@
         <v>0</v>
       </c>
       <c r="H58" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I58" s="28">
         <v>2019</v>
@@ -3534,13 +3532,13 @@
     </row>
     <row r="59" spans="1:9" ht="14">
       <c r="A59" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -3552,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="H59" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I59" s="28">
         <v>2019</v>
@@ -3560,13 +3558,13 @@
     </row>
     <row r="60" spans="1:9" ht="14">
       <c r="A60" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -3578,7 +3576,7 @@
         <v>0</v>
       </c>
       <c r="H60" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I60" s="28">
         <v>2019</v>
@@ -3586,13 +3584,13 @@
     </row>
     <row r="61" spans="1:9" ht="14">
       <c r="A61" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B61" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -3604,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="H61" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I61" s="28">
         <v>2019</v>
@@ -3612,13 +3610,13 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B62" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -3630,7 +3628,7 @@
         <v>0</v>
       </c>
       <c r="H62" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I62" s="28">
         <v>2019</v>
@@ -3638,13 +3636,13 @@
     </row>
     <row r="63" spans="1:9" ht="14">
       <c r="A63" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B63" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -3656,7 +3654,7 @@
         <v>0</v>
       </c>
       <c r="H63" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I63" s="28">
         <v>2019</v>
@@ -3664,13 +3662,13 @@
     </row>
     <row r="64" spans="1:9" ht="14">
       <c r="A64" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -3682,7 +3680,7 @@
         <v>0</v>
       </c>
       <c r="H64" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I64" s="28">
         <v>2019</v>
@@ -3690,13 +3688,13 @@
     </row>
     <row r="65" spans="1:9" ht="14">
       <c r="A65" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B65" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -3708,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="H65" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I65" s="28">
         <v>2019</v>
@@ -3716,13 +3714,13 @@
     </row>
     <row r="66" spans="1:9" ht="14">
       <c r="A66" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B66" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -3731,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="H66" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I66" s="28">
         <v>2019</v>
@@ -3739,13 +3737,13 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B67" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -3757,7 +3755,7 @@
         <v>0</v>
       </c>
       <c r="H67" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I67" s="28">
         <v>2019</v>
@@ -3765,13 +3763,13 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B68" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D68" s="3">
         <v>2</v>
@@ -3787,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="H68" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I68" s="28">
         <v>2019</v>
@@ -3795,13 +3793,13 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B69" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -3813,7 +3811,7 @@
         <v>336</v>
       </c>
       <c r="H69" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I69" s="28">
         <v>2019</v>
@@ -3821,13 +3819,13 @@
     </row>
     <row r="70" spans="1:9" ht="14">
       <c r="A70" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B70" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -3839,7 +3837,7 @@
         <v>0</v>
       </c>
       <c r="H70" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I70" s="28">
         <v>2019</v>
@@ -3847,13 +3845,13 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B71" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C71" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D71" s="3">
         <v>10</v>
@@ -3866,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="H71" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I71" s="28">
         <v>2019</v>
@@ -3874,13 +3872,13 @@
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B72" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -3889,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="H72" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I72" s="28">
         <v>2019</v>
@@ -3919,9 +3917,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33057766-FCC4-894D-A797-1D4C1BE05849}">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73:XFD73"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
@@ -3933,31 +3929,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" s="26" t="s">
+      <c r="G1" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="I1" s="26" t="s">
         <v>80</v>
-      </c>
-      <c r="H1" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="I1" s="26" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3965,10 +3961,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D2" s="3">
         <v>11</v>
@@ -3984,7 +3980,7 @@
         <v>1485</v>
       </c>
       <c r="H2" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I2" s="28">
         <v>2019</v>
@@ -3995,10 +3991,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -4010,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I3" s="28">
         <v>2019</v>
@@ -4021,10 +4017,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D4" s="3">
         <v>112</v>
@@ -4040,7 +4036,7 @@
         <v>10192</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I4" s="28">
         <v>2019</v>
@@ -4051,10 +4047,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -4066,7 +4062,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I5" s="28">
         <v>2019</v>
@@ -4077,10 +4073,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D6" s="3">
         <v>22</v>
@@ -4096,7 +4092,7 @@
         <v>2860</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I6" s="28">
         <v>2019</v>
@@ -4107,10 +4103,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -4122,7 +4118,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I7" s="28">
         <v>2019</v>
@@ -4133,10 +4129,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D8" s="3">
         <v>28</v>
@@ -4152,7 +4148,7 @@
         <v>2464</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I8" s="28">
         <v>2019</v>
@@ -4163,10 +4159,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D9" s="3">
         <v>120</v>
@@ -4182,7 +4178,7 @@
         <v>6840</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I9" s="28">
         <v>2019</v>
@@ -4190,13 +4186,13 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -4208,7 +4204,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I10" s="28">
         <v>2019</v>
@@ -4216,13 +4212,13 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -4234,7 +4230,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I11" s="28">
         <v>2019</v>
@@ -4245,10 +4241,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D12" s="3">
         <v>1</v>
@@ -4264,7 +4260,7 @@
         <v>223</v>
       </c>
       <c r="H12" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I12" s="28">
         <v>2019</v>
@@ -4275,10 +4271,10 @@
         <v>9</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D13" s="3">
         <v>376</v>
@@ -4294,7 +4290,7 @@
         <v>22936</v>
       </c>
       <c r="H13" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I13" s="28">
         <v>2019</v>
@@ -4305,10 +4301,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D14" s="3">
         <v>28</v>
@@ -4324,7 +4320,7 @@
         <v>2912</v>
       </c>
       <c r="H14" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I14" s="28">
         <v>2019</v>
@@ -4332,13 +4328,13 @@
     </row>
     <row r="15" spans="1:9" ht="14">
       <c r="A15" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -4350,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I15" s="28">
         <v>2019</v>
@@ -4358,13 +4354,13 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -4373,7 +4369,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I16" s="28">
         <v>2019</v>
@@ -4381,13 +4377,13 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D17" s="3">
         <v>348</v>
@@ -4403,7 +4399,7 @@
         <v>24360</v>
       </c>
       <c r="H17" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I17" s="28">
         <v>2019</v>
@@ -4411,13 +4407,13 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D18" s="3">
         <v>331</v>
@@ -4433,7 +4429,7 @@
         <v>16219</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I18" s="28">
         <v>2019</v>
@@ -4441,13 +4437,13 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -4459,7 +4455,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I19" s="28">
         <v>2019</v>
@@ -4467,13 +4463,13 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -4485,7 +4481,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I20" s="28">
         <v>2019</v>
@@ -4493,13 +4489,13 @@
     </row>
     <row r="21" spans="1:9" ht="14">
       <c r="A21" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D21" s="3">
         <v>0</v>
@@ -4515,7 +4511,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I21" s="28">
         <v>2019</v>
@@ -4523,13 +4519,13 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -4538,7 +4534,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I22" s="28">
         <v>2019</v>
@@ -4549,10 +4545,10 @@
         <v>11</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D23" s="3">
         <v>3</v>
@@ -4568,7 +4564,7 @@
         <v>1914</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I23" s="28">
         <v>2019</v>
@@ -4576,13 +4572,13 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D24" s="3">
         <v>0</v>
@@ -4598,7 +4594,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I24" s="28">
         <v>2019</v>
@@ -4609,10 +4605,10 @@
         <v>12</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D25" s="3">
         <v>24</v>
@@ -4628,7 +4624,7 @@
         <v>5760</v>
       </c>
       <c r="H25" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I25" s="28">
         <v>2019</v>
@@ -4639,10 +4635,10 @@
         <v>13</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D26" s="3">
         <v>14</v>
@@ -4658,7 +4654,7 @@
         <v>6720</v>
       </c>
       <c r="H26" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I26" s="28">
         <v>2019</v>
@@ -4666,13 +4662,13 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -4684,7 +4680,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I27" s="28">
         <v>2019</v>
@@ -4692,13 +4688,13 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -4710,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I28" s="28">
         <v>2019</v>
@@ -4718,13 +4714,13 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -4736,7 +4732,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I29" s="28">
         <v>2019</v>
@@ -4744,13 +4740,13 @@
     </row>
     <row r="30" spans="1:9" ht="14">
       <c r="A30" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D30" s="3">
         <v>1</v>
@@ -4766,7 +4762,7 @@
         <v>269</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I30" s="28">
         <v>2019</v>
@@ -4774,13 +4770,13 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D31" s="3">
         <v>0</v>
@@ -4796,7 +4792,7 @@
         <v>0</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I31" s="28">
         <v>2019</v>
@@ -4804,13 +4800,13 @@
     </row>
     <row r="32" spans="1:9" ht="14">
       <c r="A32" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -4822,7 +4818,7 @@
         <v>0</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I32" s="28">
         <v>2019</v>
@@ -4830,13 +4826,13 @@
     </row>
     <row r="33" spans="1:9" ht="14">
       <c r="A33" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D33" s="3">
         <v>0</v>
@@ -4852,7 +4848,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I33" s="28">
         <v>2019</v>
@@ -4863,10 +4859,10 @@
         <v>14</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D34" s="3">
         <v>0</v>
@@ -4882,7 +4878,7 @@
         <v>0</v>
       </c>
       <c r="H34" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I34" s="28">
         <v>2019</v>
@@ -4890,13 +4886,13 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D35" s="3">
         <v>0</v>
@@ -4909,7 +4905,7 @@
         <v>0</v>
       </c>
       <c r="H35" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I35" s="28">
         <v>2019</v>
@@ -4920,10 +4916,10 @@
         <v>15</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -4935,7 +4931,7 @@
         <v>0</v>
       </c>
       <c r="H36" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I36" s="28">
         <v>2019</v>
@@ -4946,10 +4942,10 @@
         <v>16</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D37" s="3">
         <v>1</v>
@@ -4965,7 +4961,7 @@
         <v>1367</v>
       </c>
       <c r="H37" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I37" s="28">
         <v>2019</v>
@@ -4976,10 +4972,10 @@
         <v>17</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D38" s="3">
         <v>8</v>
@@ -4995,7 +4991,7 @@
         <v>7640</v>
       </c>
       <c r="H38" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I38" s="28">
         <v>2019</v>
@@ -5003,13 +4999,13 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D39" s="3">
         <v>12</v>
@@ -5025,7 +5021,7 @@
         <v>2016</v>
       </c>
       <c r="H39" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I39" s="28">
         <v>2019</v>
@@ -5036,10 +5032,10 @@
         <v>18</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D40" s="3">
         <v>0</v>
@@ -5055,7 +5051,7 @@
         <v>0</v>
       </c>
       <c r="H40" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I40" s="28">
         <v>2019</v>
@@ -5066,10 +5062,10 @@
         <v>19</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D41" s="3">
         <v>0</v>
@@ -5085,7 +5081,7 @@
         <v>0</v>
       </c>
       <c r="H41" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I41" s="28">
         <v>2019</v>
@@ -5093,13 +5089,13 @@
     </row>
     <row r="42" spans="1:9" ht="14">
       <c r="A42" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D42" s="3">
         <v>1</v>
@@ -5115,7 +5111,7 @@
         <v>1270</v>
       </c>
       <c r="H42" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I42" s="28">
         <v>2019</v>
@@ -5123,13 +5119,13 @@
     </row>
     <row r="43" spans="1:9" ht="14">
       <c r="A43" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D43" s="3">
         <v>0</v>
@@ -5145,7 +5141,7 @@
         <v>0</v>
       </c>
       <c r="H43" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I43" s="28">
         <v>2019</v>
@@ -5153,13 +5149,13 @@
     </row>
     <row r="44" spans="1:9" ht="14">
       <c r="A44" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D44" s="3">
         <v>0</v>
@@ -5175,7 +5171,7 @@
         <v>0</v>
       </c>
       <c r="H44" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I44" s="28">
         <v>2019</v>
@@ -5183,13 +5179,13 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D45" s="3">
         <v>0</v>
@@ -5202,7 +5198,7 @@
         <v>0</v>
       </c>
       <c r="H45" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I45" s="28">
         <v>2019</v>
@@ -5210,13 +5206,13 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -5225,7 +5221,7 @@
         <v>0</v>
       </c>
       <c r="H46" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I46" s="28">
         <v>2019</v>
@@ -5236,10 +5232,10 @@
         <v>20</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -5251,7 +5247,7 @@
         <v>0</v>
       </c>
       <c r="H47" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I47" s="28">
         <v>2019</v>
@@ -5262,10 +5258,10 @@
         <v>21</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D48" s="3">
         <v>5</v>
@@ -5281,7 +5277,7 @@
         <v>785</v>
       </c>
       <c r="H48" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I48" s="28">
         <v>2019</v>
@@ -5292,10 +5288,10 @@
         <v>22</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D49" s="3">
         <v>4</v>
@@ -5311,7 +5307,7 @@
         <v>892</v>
       </c>
       <c r="H49" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I49" s="28">
         <v>2019</v>
@@ -5319,13 +5315,13 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D50" s="3">
         <v>0</v>
@@ -5338,7 +5334,7 @@
         <v>0</v>
       </c>
       <c r="H50" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I50" s="28">
         <v>2019</v>
@@ -5346,13 +5342,13 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -5364,7 +5360,7 @@
         <v>0</v>
       </c>
       <c r="H51" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I51" s="28">
         <v>2019</v>
@@ -5372,13 +5368,13 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D52" s="3">
         <v>3</v>
@@ -5392,7 +5388,7 @@
         <v>0</v>
       </c>
       <c r="H52" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I52" s="28">
         <v>2019</v>
@@ -5400,13 +5396,13 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -5418,7 +5414,7 @@
         <v>0</v>
       </c>
       <c r="H53" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I53" s="28">
         <v>2019</v>
@@ -5426,13 +5422,13 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D54" s="3">
         <v>8</v>
@@ -5446,7 +5442,7 @@
         <v>0</v>
       </c>
       <c r="H54" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I54" s="28">
         <v>2019</v>
@@ -5454,13 +5450,13 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -5472,7 +5468,7 @@
         <v>0</v>
       </c>
       <c r="H55" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I55" s="28">
         <v>2019</v>
@@ -5480,13 +5476,13 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B56" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D56" s="3">
         <v>9</v>
@@ -5500,7 +5496,7 @@
         <v>0</v>
       </c>
       <c r="H56" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I56" s="28">
         <v>2019</v>
@@ -5508,13 +5504,13 @@
     </row>
     <row r="57" spans="1:9" ht="14">
       <c r="A57" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C57" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -5526,7 +5522,7 @@
         <v>0</v>
       </c>
       <c r="H57" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I57" s="28">
         <v>2019</v>
@@ -5534,13 +5530,13 @@
     </row>
     <row r="58" spans="1:9" ht="14">
       <c r="A58" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -5552,7 +5548,7 @@
         <v>0</v>
       </c>
       <c r="H58" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I58" s="28">
         <v>2019</v>
@@ -5560,13 +5556,13 @@
     </row>
     <row r="59" spans="1:9" ht="14">
       <c r="A59" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -5578,7 +5574,7 @@
         <v>0</v>
       </c>
       <c r="H59" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I59" s="28">
         <v>2019</v>
@@ -5586,13 +5582,13 @@
     </row>
     <row r="60" spans="1:9" ht="14">
       <c r="A60" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -5604,7 +5600,7 @@
         <v>0</v>
       </c>
       <c r="H60" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I60" s="28">
         <v>2019</v>
@@ -5612,13 +5608,13 @@
     </row>
     <row r="61" spans="1:9" ht="14">
       <c r="A61" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B61" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -5630,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="H61" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I61" s="28">
         <v>2019</v>
@@ -5638,13 +5634,13 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B62" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -5656,7 +5652,7 @@
         <v>0</v>
       </c>
       <c r="H62" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I62" s="28">
         <v>2019</v>
@@ -5664,13 +5660,13 @@
     </row>
     <row r="63" spans="1:9" ht="14">
       <c r="A63" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B63" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -5682,7 +5678,7 @@
         <v>0</v>
       </c>
       <c r="H63" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I63" s="28">
         <v>2019</v>
@@ -5690,13 +5686,13 @@
     </row>
     <row r="64" spans="1:9" ht="14">
       <c r="A64" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -5708,7 +5704,7 @@
         <v>0</v>
       </c>
       <c r="H64" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I64" s="28">
         <v>2019</v>
@@ -5716,13 +5712,13 @@
     </row>
     <row r="65" spans="1:9" ht="14">
       <c r="A65" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B65" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -5734,7 +5730,7 @@
         <v>0</v>
       </c>
       <c r="H65" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I65" s="28">
         <v>2019</v>
@@ -5742,13 +5738,13 @@
     </row>
     <row r="66" spans="1:9" ht="14">
       <c r="A66" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B66" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -5757,7 +5753,7 @@
         <v>0</v>
       </c>
       <c r="H66" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I66" s="28">
         <v>2019</v>
@@ -5765,13 +5761,13 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B67" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -5783,7 +5779,7 @@
         <v>0</v>
       </c>
       <c r="H67" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I67" s="28">
         <v>2019</v>
@@ -5791,13 +5787,13 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B68" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D68" s="3">
         <v>1</v>
@@ -5813,7 +5809,7 @@
         <v>345</v>
       </c>
       <c r="H68" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I68" s="28">
         <v>2019</v>
@@ -5821,13 +5817,13 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B69" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -5839,7 +5835,7 @@
         <v>0</v>
       </c>
       <c r="H69" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I69" s="28">
         <v>2019</v>
@@ -5847,13 +5843,13 @@
     </row>
     <row r="70" spans="1:9" ht="14">
       <c r="A70" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B70" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D70" s="3">
         <v>0</v>
@@ -5869,7 +5865,7 @@
         <v>0</v>
       </c>
       <c r="H70" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I70" s="28">
         <v>2019</v>
@@ -5877,13 +5873,13 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B71" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C71" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D71" s="3">
         <v>3</v>
@@ -5896,7 +5892,7 @@
         <v>0</v>
       </c>
       <c r="H71" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I71" s="28">
         <v>2019</v>
@@ -5904,13 +5900,13 @@
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B72" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -5919,7 +5915,7 @@
         <v>0</v>
       </c>
       <c r="H72" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I72" s="28">
         <v>2019</v>
@@ -5934,8 +5930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8BBE6F3-4A5E-5E4C-80AB-257483E97F08}">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73:XFD73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E35" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -5943,35 +5939,36 @@
     <col min="1" max="1" width="37.33203125" customWidth="1"/>
     <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" s="26" t="s">
+      <c r="G1" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="I1" s="26" t="s">
         <v>80</v>
-      </c>
-      <c r="H1" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="I1" s="26" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -5979,22 +5976,22 @@
         <v>0</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="D2" s="25"/>
       <c r="E2" s="3"/>
       <c r="F2">
         <v>135</v>
       </c>
-      <c r="G2">
-        <f>D2*F2</f>
-        <v>0</v>
+      <c r="G2" t="e">
+        <f>#REF!*F2</f>
+        <v>#REF!</v>
       </c>
       <c r="H2" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I2" s="28">
         <v>2019</v>
@@ -6005,22 +6002,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="D3" s="25"/>
       <c r="E3" s="3"/>
       <c r="F3">
         <v>237</v>
       </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G66" si="0">D3*F3</f>
-        <v>0</v>
+      <c r="G3" t="e">
+        <f>#REF!*F3</f>
+        <v>#REF!</v>
       </c>
       <c r="H3" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I3" s="28">
         <v>2019</v>
@@ -6031,26 +6028,24 @@
         <v>2</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="D4" s="25"/>
       <c r="E4" s="3">
         <v>70</v>
       </c>
       <c r="F4">
         <v>91</v>
       </c>
-      <c r="G4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G4" t="e">
+        <f>#REF!*F4</f>
+        <v>#REF!</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I4" s="28">
         <v>2019</v>
@@ -6061,22 +6056,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="D5" s="25"/>
       <c r="E5" s="3"/>
       <c r="F5">
         <v>344</v>
       </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G5" t="e">
+        <f>#REF!*F5</f>
+        <v>#REF!</v>
       </c>
       <c r="H5" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I5" s="28">
         <v>2019</v>
@@ -6087,22 +6082,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="D6" s="25"/>
       <c r="E6" s="3"/>
       <c r="F6">
         <v>130</v>
       </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G6" t="e">
+        <f>#REF!*F6</f>
+        <v>#REF!</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I6" s="28">
         <v>2019</v>
@@ -6113,22 +6108,22 @@
         <v>5</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="D7" s="25"/>
       <c r="E7" s="3"/>
       <c r="F7">
         <v>244</v>
       </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G7" t="e">
+        <f>#REF!*F7</f>
+        <v>#REF!</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I7" s="28">
         <v>2019</v>
@@ -6139,26 +6134,24 @@
         <v>6</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="D8" s="25"/>
       <c r="E8" s="3">
         <v>33</v>
       </c>
       <c r="F8">
         <v>88</v>
       </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G8" t="e">
+        <f>#REF!*F8</f>
+        <v>#REF!</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I8" s="28">
         <v>2019</v>
@@ -6169,22 +6162,22 @@
         <v>7</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="D9" s="25"/>
       <c r="E9" s="3"/>
       <c r="F9">
         <v>57</v>
       </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G9" t="e">
+        <f>#REF!*F9</f>
+        <v>#REF!</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I9" s="28">
         <v>2019</v>
@@ -6192,25 +6185,25 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D10" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="D10" s="25"/>
       <c r="E10" s="3"/>
       <c r="F10" s="27">
         <v>63</v>
       </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G10" t="e">
+        <f>#REF!*F10</f>
+        <v>#REF!</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I10" s="28">
         <v>2019</v>
@@ -6218,25 +6211,25 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D11" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="D11" s="25"/>
       <c r="E11" s="3"/>
       <c r="F11" s="27">
         <v>50</v>
       </c>
-      <c r="G11">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G11" t="e">
+        <f>#REF!*F11</f>
+        <v>#REF!</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I11" s="28">
         <v>2019</v>
@@ -6247,22 +6240,22 @@
         <v>8</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D12" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="D12" s="25"/>
       <c r="E12" s="3"/>
       <c r="F12">
         <v>223</v>
       </c>
-      <c r="G12">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G12" t="e">
+        <f>#REF!*F12</f>
+        <v>#REF!</v>
       </c>
       <c r="H12" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I12" s="28">
         <v>2019</v>
@@ -6273,12 +6266,12 @@
         <v>9</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D13" s="3">
+        <v>82</v>
+      </c>
+      <c r="D13" s="25">
         <v>148</v>
       </c>
       <c r="E13" s="3">
@@ -6287,12 +6280,12 @@
       <c r="F13">
         <v>61</v>
       </c>
-      <c r="G13">
-        <f t="shared" si="0"/>
-        <v>9028</v>
+      <c r="G13" t="e">
+        <f>#REF!*F13</f>
+        <v>#REF!</v>
       </c>
       <c r="H13" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I13" s="28">
         <v>2019</v>
@@ -6303,12 +6296,12 @@
         <v>10</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D14" s="3">
+        <v>82</v>
+      </c>
+      <c r="D14" s="25">
         <v>77</v>
       </c>
       <c r="E14" s="3">
@@ -6317,12 +6310,12 @@
       <c r="F14">
         <v>104</v>
       </c>
-      <c r="G14">
-        <f t="shared" si="0"/>
-        <v>8008</v>
+      <c r="G14" t="e">
+        <f>#REF!*F14</f>
+        <v>#REF!</v>
       </c>
       <c r="H14" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I14" s="28">
         <v>2019</v>
@@ -6330,29 +6323,27 @@
     </row>
     <row r="15" spans="1:9" ht="14">
       <c r="A15" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="D15" s="25"/>
       <c r="E15" s="3">
         <v>10</v>
       </c>
       <c r="F15">
         <v>49</v>
       </c>
-      <c r="G15">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G15" t="e">
+        <f>#REF!*F15</f>
+        <v>#REF!</v>
       </c>
       <c r="H15" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I15" s="28">
         <v>2019</v>
@@ -6360,22 +6351,22 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D16" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="D16" s="25"/>
       <c r="E16" s="3"/>
-      <c r="G16">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G16" t="e">
+        <f>#REF!*F16</f>
+        <v>#REF!</v>
       </c>
       <c r="H16" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I16" s="28">
         <v>2019</v>
@@ -6383,15 +6374,15 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D17" s="3">
+        <v>82</v>
+      </c>
+      <c r="D17" s="25">
         <v>48</v>
       </c>
       <c r="E17" s="3">
@@ -6400,12 +6391,12 @@
       <c r="F17">
         <v>70</v>
       </c>
-      <c r="G17">
-        <f t="shared" si="0"/>
-        <v>3360</v>
+      <c r="G17" t="e">
+        <f>#REF!*F17</f>
+        <v>#REF!</v>
       </c>
       <c r="H17" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I17" s="28">
         <v>2019</v>
@@ -6413,15 +6404,15 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" s="3">
+        <v>82</v>
+      </c>
+      <c r="D18" s="25">
         <v>54</v>
       </c>
       <c r="E18" s="3">
@@ -6430,12 +6421,12 @@
       <c r="F18">
         <v>49</v>
       </c>
-      <c r="G18">
-        <f t="shared" si="0"/>
-        <v>2646</v>
+      <c r="G18" t="e">
+        <f>#REF!*F18</f>
+        <v>#REF!</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I18" s="28">
         <v>2019</v>
@@ -6443,25 +6434,25 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D19" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="D19" s="25"/>
       <c r="E19" s="3"/>
       <c r="F19">
         <v>49</v>
       </c>
-      <c r="G19">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G19" t="e">
+        <f>#REF!*F19</f>
+        <v>#REF!</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I19" s="28">
         <v>2019</v>
@@ -6469,25 +6460,25 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D20" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="D20" s="25"/>
       <c r="E20" s="3"/>
       <c r="F20">
         <v>399</v>
       </c>
-      <c r="G20">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G20" t="e">
+        <f>#REF!*F20</f>
+        <v>#REF!</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I20" s="28">
         <v>2019</v>
@@ -6495,15 +6486,15 @@
     </row>
     <row r="21" spans="1:9" ht="14">
       <c r="A21" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D21" s="3">
+        <v>82</v>
+      </c>
+      <c r="D21" s="25">
         <v>2</v>
       </c>
       <c r="E21" s="3">
@@ -6512,12 +6503,12 @@
       <c r="F21">
         <v>619</v>
       </c>
-      <c r="G21">
-        <f t="shared" si="0"/>
-        <v>1238</v>
+      <c r="G21" t="e">
+        <f>#REF!*F21</f>
+        <v>#REF!</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I21" s="28">
         <v>2019</v>
@@ -6525,22 +6516,22 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D22" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="D22" s="25"/>
       <c r="E22" s="3"/>
-      <c r="G22">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G22" t="e">
+        <f>#REF!*F22</f>
+        <v>#REF!</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I22" s="28">
         <v>2019</v>
@@ -6551,12 +6542,12 @@
         <v>11</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23" s="3">
+        <v>82</v>
+      </c>
+      <c r="D23" s="25">
         <v>1</v>
       </c>
       <c r="E23" s="3">
@@ -6565,12 +6556,12 @@
       <c r="F23">
         <v>638</v>
       </c>
-      <c r="G23">
-        <f t="shared" si="0"/>
-        <v>638</v>
+      <c r="G23" t="e">
+        <f>#REF!*F23</f>
+        <v>#REF!</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I23" s="28">
         <v>2019</v>
@@ -6578,15 +6569,15 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D24" s="3">
+        <v>82</v>
+      </c>
+      <c r="D24" s="25">
         <v>1</v>
       </c>
       <c r="E24" s="3">
@@ -6595,12 +6586,12 @@
       <c r="F24">
         <v>68</v>
       </c>
-      <c r="G24">
-        <f t="shared" si="0"/>
-        <v>68</v>
+      <c r="G24" t="e">
+        <f>#REF!*F24</f>
+        <v>#REF!</v>
       </c>
       <c r="H24" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I24" s="28">
         <v>2019</v>
@@ -6611,12 +6602,12 @@
         <v>12</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D25" s="3">
+        <v>82</v>
+      </c>
+      <c r="D25" s="25">
         <v>3</v>
       </c>
       <c r="E25" s="3">
@@ -6625,12 +6616,12 @@
       <c r="F25">
         <v>240</v>
       </c>
-      <c r="G25">
-        <f t="shared" si="0"/>
-        <v>720</v>
+      <c r="G25" t="e">
+        <f>#REF!*F25</f>
+        <v>#REF!</v>
       </c>
       <c r="H25" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I25" s="28">
         <v>2019</v>
@@ -6641,12 +6632,12 @@
         <v>13</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D26" s="3">
+        <v>82</v>
+      </c>
+      <c r="D26" s="25">
         <v>5</v>
       </c>
       <c r="E26" s="3">
@@ -6655,12 +6646,12 @@
       <c r="F26">
         <v>480</v>
       </c>
-      <c r="G26">
-        <f t="shared" si="0"/>
-        <v>2400</v>
+      <c r="G26" t="e">
+        <f>#REF!*F26</f>
+        <v>#REF!</v>
       </c>
       <c r="H26" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I26" s="28">
         <v>2019</v>
@@ -6668,25 +6659,25 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D27" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="D27" s="25"/>
       <c r="E27" s="3"/>
       <c r="F27">
         <v>830</v>
       </c>
-      <c r="G27">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G27" t="e">
+        <f>#REF!*F27</f>
+        <v>#REF!</v>
       </c>
       <c r="H27" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I27" s="28">
         <v>2019</v>
@@ -6694,25 +6685,25 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D28" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="D28" s="25"/>
       <c r="E28" s="3"/>
       <c r="F28">
         <v>430</v>
       </c>
-      <c r="G28">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G28" t="e">
+        <f>#REF!*F28</f>
+        <v>#REF!</v>
       </c>
       <c r="H28" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I28" s="28">
         <v>2019</v>
@@ -6720,25 +6711,25 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D29" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="D29" s="25"/>
       <c r="E29" s="3"/>
       <c r="F29">
         <v>360</v>
       </c>
-      <c r="G29">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G29" t="e">
+        <f>#REF!*F29</f>
+        <v>#REF!</v>
       </c>
       <c r="H29" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I29" s="28">
         <v>2019</v>
@@ -6746,29 +6737,27 @@
     </row>
     <row r="30" spans="1:9" ht="14">
       <c r="A30" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D30" s="3">
-        <v>0</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="D30" s="25"/>
       <c r="E30" s="3">
         <v>1</v>
       </c>
       <c r="F30">
         <v>269</v>
       </c>
-      <c r="G30">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G30" t="e">
+        <f>#REF!*F30</f>
+        <v>#REF!</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I30" s="28">
         <v>2019</v>
@@ -6776,29 +6765,27 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D31" s="3">
-        <v>0</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="D31" s="25"/>
       <c r="E31" s="3">
         <v>2</v>
       </c>
       <c r="F31">
         <v>633</v>
       </c>
-      <c r="G31">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G31" t="e">
+        <f>#REF!*F31</f>
+        <v>#REF!</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I31" s="28">
         <v>2019</v>
@@ -6806,29 +6793,27 @@
     </row>
     <row r="32" spans="1:9" ht="14">
       <c r="A32" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D32" s="3">
-        <v>0</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="D32" s="25"/>
       <c r="E32" s="3">
         <v>3</v>
       </c>
       <c r="F32">
         <v>789</v>
       </c>
-      <c r="G32">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G32" t="e">
+        <f>#REF!*F32</f>
+        <v>#REF!</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I32" s="28">
         <v>2019</v>
@@ -6836,29 +6821,27 @@
     </row>
     <row r="33" spans="1:9" ht="14">
       <c r="A33" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D33" s="3">
-        <v>0</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="D33" s="25"/>
       <c r="E33" s="3">
         <v>2</v>
       </c>
       <c r="F33">
         <v>865</v>
       </c>
-      <c r="G33">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G33" t="e">
+        <f>#REF!*F33</f>
+        <v>#REF!</v>
       </c>
       <c r="H33" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I33" s="28">
         <v>2019</v>
@@ -6869,22 +6852,22 @@
         <v>14</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D34" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="D34" s="25"/>
       <c r="E34" s="3"/>
       <c r="F34">
         <v>863</v>
       </c>
-      <c r="G34">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G34" t="e">
+        <f>#REF!*F34</f>
+        <v>#REF!</v>
       </c>
       <c r="H34" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I34" s="28">
         <v>2019</v>
@@ -6892,22 +6875,22 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D35" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="D35" s="25"/>
       <c r="E35" s="3"/>
-      <c r="G35">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G35" t="e">
+        <f>#REF!*F35</f>
+        <v>#REF!</v>
       </c>
       <c r="H35" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I35" s="28">
         <v>2019</v>
@@ -6918,22 +6901,22 @@
         <v>15</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D36" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="D36" s="25"/>
       <c r="E36" s="3"/>
       <c r="F36">
         <v>1136</v>
       </c>
-      <c r="G36">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G36" t="e">
+        <f>#REF!*F36</f>
+        <v>#REF!</v>
       </c>
       <c r="H36" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I36" s="28">
         <v>2019</v>
@@ -6944,26 +6927,24 @@
         <v>16</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D37" s="3">
-        <v>0</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="D37" s="25"/>
       <c r="E37" s="3">
         <v>1</v>
       </c>
       <c r="F37">
         <v>1367</v>
       </c>
-      <c r="G37">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G37" t="e">
+        <f>#REF!*F37</f>
+        <v>#REF!</v>
       </c>
       <c r="H37" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I37" s="28">
         <v>2019</v>
@@ -6974,26 +6955,24 @@
         <v>17</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D38" s="3">
-        <v>0</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="D38" s="25"/>
       <c r="E38" s="3">
         <v>2</v>
       </c>
       <c r="F38">
         <v>955</v>
       </c>
-      <c r="G38">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G38" t="e">
+        <f>#REF!*F38</f>
+        <v>#REF!</v>
       </c>
       <c r="H38" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I38" s="28">
         <v>2019</v>
@@ -7001,29 +6980,27 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D39" s="3">
-        <v>0</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="D39" s="25"/>
       <c r="E39" s="3">
         <v>4</v>
       </c>
       <c r="F39">
         <v>168</v>
       </c>
-      <c r="G39">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G39" t="e">
+        <f>#REF!*F39</f>
+        <v>#REF!</v>
       </c>
       <c r="H39" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I39" s="28">
         <v>2019</v>
@@ -7034,26 +7011,24 @@
         <v>18</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D40" s="3">
-        <v>0</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="D40" s="25"/>
       <c r="E40" s="3">
         <v>5</v>
       </c>
       <c r="F40">
         <v>1287</v>
       </c>
-      <c r="G40">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G40" t="e">
+        <f>#REF!*F40</f>
+        <v>#REF!</v>
       </c>
       <c r="H40" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I40" s="28">
         <v>2019</v>
@@ -7064,22 +7039,22 @@
         <v>19</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D41" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="D41" s="25"/>
       <c r="E41" s="3"/>
       <c r="F41">
         <v>1358</v>
       </c>
-      <c r="G41">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G41" t="e">
+        <f>#REF!*F41</f>
+        <v>#REF!</v>
       </c>
       <c r="H41" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I41" s="28">
         <v>2019</v>
@@ -7087,25 +7062,25 @@
     </row>
     <row r="42" spans="1:9" ht="14">
       <c r="A42" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D42" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="D42" s="25"/>
       <c r="E42" s="3"/>
       <c r="F42">
         <v>1270</v>
       </c>
-      <c r="G42">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G42" t="e">
+        <f>#REF!*F42</f>
+        <v>#REF!</v>
       </c>
       <c r="H42" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I42" s="28">
         <v>2019</v>
@@ -7113,29 +7088,27 @@
     </row>
     <row r="43" spans="1:9" ht="14">
       <c r="A43" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D43" s="3">
-        <v>0</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="D43" s="25"/>
       <c r="E43" s="3">
         <v>2</v>
       </c>
       <c r="F43">
         <v>1184</v>
       </c>
-      <c r="G43">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G43" t="e">
+        <f>#REF!*F43</f>
+        <v>#REF!</v>
       </c>
       <c r="H43" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I43" s="28">
         <v>2019</v>
@@ -7143,29 +7116,27 @@
     </row>
     <row r="44" spans="1:9" ht="14">
       <c r="A44" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D44" s="3">
-        <v>0</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="D44" s="25"/>
       <c r="E44" s="3">
         <v>1</v>
       </c>
       <c r="F44">
         <v>755</v>
       </c>
-      <c r="G44">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G44" t="e">
+        <f>#REF!*F44</f>
+        <v>#REF!</v>
       </c>
       <c r="H44" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I44" s="28">
         <v>2019</v>
@@ -7173,26 +7144,24 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D45" s="3">
-        <v>0</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="D45" s="25"/>
       <c r="E45" s="3">
         <v>1</v>
       </c>
-      <c r="G45">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G45" t="e">
+        <f>#REF!*F45</f>
+        <v>#REF!</v>
       </c>
       <c r="H45" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I45" s="28">
         <v>2019</v>
@@ -7200,22 +7169,22 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D46" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="D46" s="25"/>
       <c r="E46" s="3"/>
-      <c r="G46">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G46" t="e">
+        <f>#REF!*F46</f>
+        <v>#REF!</v>
       </c>
       <c r="H46" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I46" s="28">
         <v>2019</v>
@@ -7226,22 +7195,22 @@
         <v>20</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D47" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="D47" s="25"/>
       <c r="E47" s="3"/>
       <c r="F47">
         <v>984</v>
       </c>
-      <c r="G47">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G47" t="e">
+        <f>#REF!*F47</f>
+        <v>#REF!</v>
       </c>
       <c r="H47" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I47" s="28">
         <v>2019</v>
@@ -7252,12 +7221,12 @@
         <v>21</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D48" s="3">
+        <v>82</v>
+      </c>
+      <c r="D48" s="25">
         <v>3</v>
       </c>
       <c r="E48" s="3">
@@ -7266,12 +7235,12 @@
       <c r="F48">
         <v>157</v>
       </c>
-      <c r="G48">
-        <f t="shared" si="0"/>
-        <v>471</v>
+      <c r="G48" t="e">
+        <f>#REF!*F48</f>
+        <v>#REF!</v>
       </c>
       <c r="H48" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I48" s="28">
         <v>2019</v>
@@ -7282,12 +7251,12 @@
         <v>22</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D49" s="3">
+        <v>82</v>
+      </c>
+      <c r="D49" s="25">
         <v>1</v>
       </c>
       <c r="E49" s="3">
@@ -7296,12 +7265,12 @@
       <c r="F49">
         <v>223</v>
       </c>
-      <c r="G49">
-        <f t="shared" si="0"/>
-        <v>223</v>
+      <c r="G49" t="e">
+        <f>#REF!*F49</f>
+        <v>#REF!</v>
       </c>
       <c r="H49" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I49" s="28">
         <v>2019</v>
@@ -7309,26 +7278,24 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D50" s="3">
-        <v>0</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="D50" s="25"/>
       <c r="E50" s="3">
         <v>0</v>
       </c>
-      <c r="G50">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G50" t="e">
+        <f>#REF!*F50</f>
+        <v>#REF!</v>
       </c>
       <c r="H50" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I50" s="28">
         <v>2019</v>
@@ -7336,25 +7303,25 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D51" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="D51" s="25"/>
       <c r="E51" s="3"/>
       <c r="F51">
         <v>484</v>
       </c>
-      <c r="G51">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G51" t="e">
+        <f>#REF!*F51</f>
+        <v>#REF!</v>
       </c>
       <c r="H51" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I51" s="28">
         <v>2019</v>
@@ -7362,27 +7329,25 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D52" s="3">
-        <v>0</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="D52" s="25"/>
       <c r="E52" s="3">
         <v>8</v>
       </c>
       <c r="F52" s="27"/>
-      <c r="G52">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G52" t="e">
+        <f>#REF!*F52</f>
+        <v>#REF!</v>
       </c>
       <c r="H52" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I52" s="28">
         <v>2019</v>
@@ -7390,25 +7355,25 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D53" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="D53" s="25"/>
       <c r="E53" s="3"/>
       <c r="F53">
         <v>769</v>
       </c>
-      <c r="G53">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G53" t="e">
+        <f>#REF!*F53</f>
+        <v>#REF!</v>
       </c>
       <c r="H53" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I53" s="28">
         <v>2019</v>
@@ -7416,27 +7381,25 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D54" s="3">
-        <v>0</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="D54" s="25"/>
       <c r="E54" s="3">
         <v>15</v>
       </c>
       <c r="F54" s="27"/>
-      <c r="G54">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G54" t="e">
+        <f>#REF!*F54</f>
+        <v>#REF!</v>
       </c>
       <c r="H54" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I54" s="28">
         <v>2019</v>
@@ -7444,27 +7407,25 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>75</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="D55" s="25"/>
       <c r="E55" s="3"/>
       <c r="F55">
         <v>155</v>
       </c>
       <c r="G55" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <f>#REF!*F55</f>
+        <v>#REF!</v>
       </c>
       <c r="H55" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I55" s="28">
         <v>2019</v>
@@ -7472,27 +7433,25 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B56" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D56" s="3">
-        <v>0</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="D56" s="25"/>
       <c r="E56" s="3">
         <v>0</v>
       </c>
       <c r="F56" s="27"/>
-      <c r="G56">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G56" t="e">
+        <f>#REF!*F56</f>
+        <v>#REF!</v>
       </c>
       <c r="H56" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I56" s="28">
         <v>2019</v>
@@ -7500,25 +7459,25 @@
     </row>
     <row r="57" spans="1:9" ht="14">
       <c r="A57" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C57" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D57" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="D57" s="25"/>
       <c r="E57" s="3"/>
       <c r="F57">
         <v>98</v>
       </c>
-      <c r="G57">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G57" t="e">
+        <f>#REF!*F57</f>
+        <v>#REF!</v>
       </c>
       <c r="H57" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I57" s="28">
         <v>2019</v>
@@ -7526,25 +7485,25 @@
     </row>
     <row r="58" spans="1:9" ht="14">
       <c r="A58" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D58" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="D58" s="25"/>
       <c r="E58" s="3"/>
       <c r="F58">
         <v>59</v>
       </c>
-      <c r="G58">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G58" t="e">
+        <f>#REF!*F58</f>
+        <v>#REF!</v>
       </c>
       <c r="H58" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I58" s="28">
         <v>2019</v>
@@ -7552,25 +7511,25 @@
     </row>
     <row r="59" spans="1:9" ht="14">
       <c r="A59" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D59" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="D59" s="25"/>
       <c r="E59" s="3"/>
       <c r="F59" s="27">
         <v>112</v>
       </c>
-      <c r="G59">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G59" t="e">
+        <f>#REF!*F59</f>
+        <v>#REF!</v>
       </c>
       <c r="H59" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I59" s="28">
         <v>2019</v>
@@ -7578,25 +7537,25 @@
     </row>
     <row r="60" spans="1:9" ht="14">
       <c r="A60" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D60" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="D60" s="25"/>
       <c r="E60" s="3"/>
       <c r="F60" s="27">
         <v>225</v>
       </c>
-      <c r="G60">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G60" t="e">
+        <f>#REF!*F60</f>
+        <v>#REF!</v>
       </c>
       <c r="H60" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I60" s="28">
         <v>2019</v>
@@ -7604,25 +7563,25 @@
     </row>
     <row r="61" spans="1:9" ht="14">
       <c r="A61" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B61" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D61" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="D61" s="25"/>
       <c r="E61" s="3"/>
       <c r="F61" s="27">
         <v>80</v>
       </c>
-      <c r="G61">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G61" t="e">
+        <f>#REF!*F61</f>
+        <v>#REF!</v>
       </c>
       <c r="H61" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I61" s="28">
         <v>2019</v>
@@ -7630,25 +7589,25 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B62" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D62" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="D62" s="25"/>
       <c r="E62" s="3"/>
       <c r="F62" s="27">
         <v>80</v>
       </c>
-      <c r="G62">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G62" t="e">
+        <f>#REF!*F62</f>
+        <v>#REF!</v>
       </c>
       <c r="H62" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I62" s="28">
         <v>2019</v>
@@ -7656,25 +7615,25 @@
     </row>
     <row r="63" spans="1:9" ht="14">
       <c r="A63" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B63" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D63" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="D63" s="25"/>
       <c r="E63" s="3"/>
       <c r="F63" s="27">
         <v>80</v>
       </c>
-      <c r="G63">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G63" t="e">
+        <f>#REF!*F63</f>
+        <v>#REF!</v>
       </c>
       <c r="H63" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I63" s="28">
         <v>2019</v>
@@ -7682,25 +7641,25 @@
     </row>
     <row r="64" spans="1:9" ht="14">
       <c r="A64" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D64" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="D64" s="25"/>
       <c r="E64" s="3"/>
       <c r="F64" s="27">
         <v>125</v>
       </c>
-      <c r="G64">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G64" t="e">
+        <f>#REF!*F64</f>
+        <v>#REF!</v>
       </c>
       <c r="H64" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I64" s="28">
         <v>2019</v>
@@ -7708,25 +7667,25 @@
     </row>
     <row r="65" spans="1:9" ht="14">
       <c r="A65" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B65" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D65" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="D65" s="25"/>
       <c r="E65" s="3"/>
       <c r="F65" s="27">
         <v>127</v>
       </c>
-      <c r="G65">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G65" t="e">
+        <f>#REF!*F65</f>
+        <v>#REF!</v>
       </c>
       <c r="H65" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I65" s="28">
         <v>2019</v>
@@ -7734,22 +7693,22 @@
     </row>
     <row r="66" spans="1:9" ht="14">
       <c r="A66" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B66" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D66" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="D66" s="25"/>
       <c r="E66" s="3"/>
-      <c r="G66">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G66" t="e">
+        <f>#REF!*F66</f>
+        <v>#REF!</v>
       </c>
       <c r="H66" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I66" s="28">
         <v>2019</v>
@@ -7757,25 +7716,25 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B67" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D67" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="D67" s="25"/>
       <c r="E67" s="3"/>
       <c r="F67" s="27">
         <v>30</v>
       </c>
-      <c r="G67">
-        <f t="shared" ref="G67:G72" si="1">D67*F67</f>
-        <v>0</v>
+      <c r="G67" t="e">
+        <f>#REF!*F67</f>
+        <v>#REF!</v>
       </c>
       <c r="H67" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I67" s="28">
         <v>2019</v>
@@ -7783,15 +7742,15 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B68" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D68" s="3">
+        <v>82</v>
+      </c>
+      <c r="D68" s="25">
         <v>2</v>
       </c>
       <c r="E68" s="3">
@@ -7800,12 +7759,12 @@
       <c r="F68" s="27">
         <v>345</v>
       </c>
-      <c r="G68">
-        <f t="shared" si="1"/>
-        <v>690</v>
+      <c r="G68" t="e">
+        <f>#REF!*F68</f>
+        <v>#REF!</v>
       </c>
       <c r="H68" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I68" s="28">
         <v>2019</v>
@@ -7813,25 +7772,25 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B69" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D69" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="D69" s="25"/>
       <c r="E69" s="3"/>
       <c r="F69">
         <v>48</v>
       </c>
-      <c r="G69">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="G69" t="e">
+        <f>#REF!*F69</f>
+        <v>#REF!</v>
       </c>
       <c r="H69" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I69" s="28">
         <v>2019</v>
@@ -7839,29 +7798,27 @@
     </row>
     <row r="70" spans="1:9" ht="14">
       <c r="A70" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B70" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D70" s="3">
-        <v>0</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="D70" s="25"/>
       <c r="E70" s="3">
         <v>10</v>
       </c>
       <c r="F70">
         <v>170</v>
       </c>
-      <c r="G70">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="G70" t="e">
+        <f>#REF!*F70</f>
+        <v>#REF!</v>
       </c>
       <c r="H70" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I70" s="28">
         <v>2019</v>
@@ -7869,26 +7826,24 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B71" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C71" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D71" s="3">
-        <v>0</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="D71" s="25"/>
       <c r="E71" s="3">
         <v>10</v>
       </c>
-      <c r="G71">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="G71" t="e">
+        <f>#REF!*F71</f>
+        <v>#REF!</v>
       </c>
       <c r="H71" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I71" s="28">
         <v>2019</v>
@@ -7896,22 +7851,22 @@
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B72" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D72" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="D72" s="25"/>
       <c r="E72" s="3"/>
-      <c r="G72">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="G72" t="e">
+        <f>#REF!*F72</f>
+        <v>#REF!</v>
       </c>
       <c r="H72" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I72" s="28">
         <v>2019</v>
@@ -7926,8 +7881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B71E2C1-B45E-0E4A-804A-0318581059A8}">
   <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="I73" sqref="I73"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="E33" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -7935,35 +7890,36 @@
     <col min="1" max="1" width="37.33203125" customWidth="1"/>
     <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" s="26" t="s">
+      <c r="G1" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="I1" s="26" t="s">
         <v>80</v>
-      </c>
-      <c r="H1" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="I1" s="26" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -7971,26 +7927,24 @@
         <v>0</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="D2" s="25"/>
       <c r="E2" s="3">
         <v>10</v>
       </c>
       <c r="F2">
         <v>135</v>
       </c>
-      <c r="G2">
-        <f>F2*D2</f>
-        <v>0</v>
+      <c r="G2" t="e">
+        <f>F2*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H2" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I2" s="28">
         <v>2019</v>
@@ -8001,26 +7955,24 @@
         <v>1</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="D3" s="25"/>
       <c r="E3" s="3">
         <v>0</v>
       </c>
       <c r="F3">
         <v>237</v>
       </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G66" si="0">F3*D3</f>
-        <v>0</v>
+      <c r="G3" t="e">
+        <f>F3*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H3" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I3" s="28">
         <v>2019</v>
@@ -8031,12 +7983,12 @@
         <v>2</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" s="3">
+        <v>84</v>
+      </c>
+      <c r="D4" s="25">
         <v>65</v>
       </c>
       <c r="E4" s="3">
@@ -8045,12 +7997,12 @@
       <c r="F4">
         <v>91</v>
       </c>
-      <c r="G4">
-        <f t="shared" si="0"/>
-        <v>5915</v>
+      <c r="G4" t="e">
+        <f>F4*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I4" s="28">
         <v>2019</v>
@@ -8061,22 +8013,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5" s="3"/>
+        <v>84</v>
+      </c>
+      <c r="D5" s="25"/>
       <c r="E5" s="3"/>
       <c r="F5">
         <v>344</v>
       </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G5" t="e">
+        <f>F5*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H5" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I5" s="28">
         <v>2019</v>
@@ -8087,26 +8039,24 @@
         <v>4</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="D6" s="25"/>
       <c r="E6" s="3">
         <v>10</v>
       </c>
       <c r="F6">
         <v>130</v>
       </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G6" t="e">
+        <f>F6*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I6" s="28">
         <v>2019</v>
@@ -8117,26 +8067,24 @@
         <v>5</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="D7" s="25"/>
       <c r="E7" s="3">
         <v>0</v>
       </c>
       <c r="F7">
         <v>244</v>
       </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G7" t="e">
+        <f>F7*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I7" s="28">
         <v>2019</v>
@@ -8147,12 +8095,12 @@
         <v>6</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D8" s="3">
+        <v>84</v>
+      </c>
+      <c r="D8" s="25">
         <v>4</v>
       </c>
       <c r="E8" s="3">
@@ -8161,12 +8109,12 @@
       <c r="F8">
         <v>88</v>
       </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
-        <v>352</v>
+      <c r="G8" t="e">
+        <f>F8*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I8" s="28">
         <v>2019</v>
@@ -8177,12 +8125,12 @@
         <v>7</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D9" s="3">
+        <v>84</v>
+      </c>
+      <c r="D9" s="25">
         <v>13</v>
       </c>
       <c r="E9" s="3">
@@ -8191,12 +8139,12 @@
       <c r="F9">
         <v>57</v>
       </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
-        <v>741</v>
+      <c r="G9" t="e">
+        <f>F9*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I9" s="28">
         <v>2019</v>
@@ -8204,29 +8152,27 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="D10" s="25"/>
       <c r="E10" s="3">
         <v>0</v>
       </c>
       <c r="F10" s="27">
         <v>63</v>
       </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G10" t="e">
+        <f>F10*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I10" s="28">
         <v>2019</v>
@@ -8234,29 +8180,27 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="D11" s="25"/>
       <c r="E11" s="3">
         <v>0</v>
       </c>
       <c r="F11" s="27">
         <v>50</v>
       </c>
-      <c r="G11">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G11" t="e">
+        <f>F11*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I11" s="28">
         <v>2019</v>
@@ -8267,12 +8211,12 @@
         <v>8</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D12" s="3">
+        <v>84</v>
+      </c>
+      <c r="D12" s="25">
         <v>20</v>
       </c>
       <c r="E12" s="3">
@@ -8281,12 +8225,12 @@
       <c r="F12">
         <v>223</v>
       </c>
-      <c r="G12">
-        <f t="shared" si="0"/>
-        <v>4460</v>
+      <c r="G12" t="e">
+        <f>F12*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H12" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I12" s="28">
         <v>2019</v>
@@ -8297,12 +8241,12 @@
         <v>9</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D13" s="3">
+        <v>84</v>
+      </c>
+      <c r="D13" s="25">
         <v>102</v>
       </c>
       <c r="E13" s="3">
@@ -8311,12 +8255,12 @@
       <c r="F13">
         <v>61</v>
       </c>
-      <c r="G13">
-        <f t="shared" si="0"/>
-        <v>6222</v>
+      <c r="G13" t="e">
+        <f>F13*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H13" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I13" s="28">
         <v>2019</v>
@@ -8327,12 +8271,12 @@
         <v>10</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D14" s="3">
+        <v>84</v>
+      </c>
+      <c r="D14" s="25">
         <v>14</v>
       </c>
       <c r="E14" s="3">
@@ -8341,12 +8285,12 @@
       <c r="F14">
         <v>104</v>
       </c>
-      <c r="G14">
-        <f t="shared" si="0"/>
-        <v>1456</v>
+      <c r="G14" t="e">
+        <f>F14*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H14" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I14" s="28">
         <v>2019</v>
@@ -8354,29 +8298,27 @@
     </row>
     <row r="15" spans="1:9" ht="14">
       <c r="A15" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="D15" s="25"/>
       <c r="E15" s="3">
         <v>19</v>
       </c>
       <c r="F15">
         <v>49</v>
       </c>
-      <c r="G15">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G15" t="e">
+        <f>F15*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H15" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I15" s="28">
         <v>2019</v>
@@ -8384,26 +8326,26 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" s="3">
+        <v>84</v>
+      </c>
+      <c r="D16" s="25">
         <v>5</v>
       </c>
       <c r="E16" s="3">
         <v>25</v>
       </c>
-      <c r="G16">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G16" t="e">
+        <f>F16*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H16" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I16" s="28">
         <v>2019</v>
@@ -8411,15 +8353,15 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D17" s="3">
+        <v>84</v>
+      </c>
+      <c r="D17" s="25">
         <v>155</v>
       </c>
       <c r="E17" s="3">
@@ -8428,12 +8370,12 @@
       <c r="F17">
         <v>70</v>
       </c>
-      <c r="G17">
-        <f t="shared" si="0"/>
-        <v>10850</v>
+      <c r="G17" t="e">
+        <f>F17*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H17" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I17" s="28">
         <v>2019</v>
@@ -8441,15 +8383,15 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D18" s="3">
+        <v>84</v>
+      </c>
+      <c r="D18" s="25">
         <v>209</v>
       </c>
       <c r="E18" s="3">
@@ -8458,12 +8400,12 @@
       <c r="F18">
         <v>49</v>
       </c>
-      <c r="G18">
-        <f t="shared" si="0"/>
-        <v>10241</v>
+      <c r="G18" t="e">
+        <f>F18*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I18" s="28">
         <v>2019</v>
@@ -8471,15 +8413,15 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D19" s="3">
+        <v>84</v>
+      </c>
+      <c r="D19" s="25">
         <v>2</v>
       </c>
       <c r="E19" s="3">
@@ -8488,12 +8430,12 @@
       <c r="F19">
         <v>49</v>
       </c>
-      <c r="G19">
-        <f t="shared" si="0"/>
-        <v>98</v>
+      <c r="G19" t="e">
+        <f>F19*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I19" s="28">
         <v>2019</v>
@@ -8501,29 +8443,27 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D20" s="3">
-        <v>0</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="D20" s="25"/>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20">
         <v>399</v>
       </c>
-      <c r="G20">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G20" t="e">
+        <f>F20*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I20" s="28">
         <v>2019</v>
@@ -8531,15 +8471,15 @@
     </row>
     <row r="21" spans="1:9" ht="14">
       <c r="A21" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D21" s="3">
+        <v>84</v>
+      </c>
+      <c r="D21" s="25">
         <v>16</v>
       </c>
       <c r="E21" s="3">
@@ -8548,12 +8488,12 @@
       <c r="F21">
         <v>619</v>
       </c>
-      <c r="G21">
-        <f t="shared" si="0"/>
-        <v>9904</v>
+      <c r="G21" t="e">
+        <f>F21*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I21" s="28">
         <v>2019</v>
@@ -8561,26 +8501,24 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="D22" s="25"/>
       <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="G22">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G22" t="e">
+        <f>F22*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I22" s="28">
         <v>2019</v>
@@ -8591,26 +8529,24 @@
         <v>11</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D23" s="3">
-        <v>0</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="D23" s="25"/>
       <c r="E23" s="3">
         <v>6</v>
       </c>
       <c r="F23">
         <v>638</v>
       </c>
-      <c r="G23">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G23" t="e">
+        <f>F23*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I23" s="28">
         <v>2019</v>
@@ -8618,29 +8554,27 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D24" s="3">
-        <v>0</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="D24" s="25"/>
       <c r="E24" s="3">
         <v>3</v>
       </c>
       <c r="F24">
         <v>68</v>
       </c>
-      <c r="G24">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G24" t="e">
+        <f>F24*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H24" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I24" s="28">
         <v>2019</v>
@@ -8651,12 +8585,12 @@
         <v>12</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D25" s="3">
+        <v>84</v>
+      </c>
+      <c r="D25" s="25">
         <v>10</v>
       </c>
       <c r="E25" s="3">
@@ -8665,12 +8599,12 @@
       <c r="F25">
         <v>240</v>
       </c>
-      <c r="G25">
-        <f t="shared" si="0"/>
-        <v>2400</v>
+      <c r="G25" t="e">
+        <f>F25*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H25" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I25" s="28">
         <v>2019</v>
@@ -8681,26 +8615,24 @@
         <v>13</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D26" s="3">
-        <v>6</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="D26" s="25"/>
       <c r="E26" s="3">
         <v>5</v>
       </c>
       <c r="F26">
         <v>480</v>
       </c>
-      <c r="G26">
-        <f t="shared" si="0"/>
-        <v>2880</v>
+      <c r="G26" t="e">
+        <f>F26*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H26" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I26" s="28">
         <v>2019</v>
@@ -8708,25 +8640,25 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D27" s="3"/>
+        <v>84</v>
+      </c>
+      <c r="D27" s="25"/>
       <c r="E27" s="3"/>
       <c r="F27">
         <v>830</v>
       </c>
-      <c r="G27">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G27" t="e">
+        <f>F27*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H27" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I27" s="28">
         <v>2019</v>
@@ -8734,15 +8666,15 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D28" s="3">
+        <v>84</v>
+      </c>
+      <c r="D28" s="25">
         <v>2</v>
       </c>
       <c r="E28" s="3">
@@ -8751,12 +8683,12 @@
       <c r="F28">
         <v>430</v>
       </c>
-      <c r="G28">
-        <f t="shared" si="0"/>
-        <v>860</v>
+      <c r="G28" t="e">
+        <f>F28*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H28" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I28" s="28">
         <v>2019</v>
@@ -8764,29 +8696,27 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D29" s="3">
-        <v>0</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="D29" s="25"/>
       <c r="E29" s="3">
         <v>0</v>
       </c>
       <c r="F29">
         <v>360</v>
       </c>
-      <c r="G29">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G29" t="e">
+        <f>F29*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H29" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I29" s="28">
         <v>2019</v>
@@ -8794,29 +8724,27 @@
     </row>
     <row r="30" spans="1:9" ht="14">
       <c r="A30" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D30" s="3">
-        <v>0</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="D30" s="25"/>
       <c r="E30" s="3">
         <v>3</v>
       </c>
       <c r="F30">
         <v>269</v>
       </c>
-      <c r="G30">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G30" t="e">
+        <f>F30*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I30" s="28">
         <v>2019</v>
@@ -8824,15 +8752,15 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D31" s="3">
+        <v>84</v>
+      </c>
+      <c r="D31" s="25">
         <v>8</v>
       </c>
       <c r="E31" s="3">
@@ -8841,12 +8769,12 @@
       <c r="F31">
         <v>633</v>
       </c>
-      <c r="G31">
-        <f t="shared" si="0"/>
-        <v>5064</v>
+      <c r="G31" t="e">
+        <f>F31*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I31" s="28">
         <v>2019</v>
@@ -8854,15 +8782,15 @@
     </row>
     <row r="32" spans="1:9" ht="14">
       <c r="A32" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D32" s="3">
+        <v>84</v>
+      </c>
+      <c r="D32" s="25">
         <v>3</v>
       </c>
       <c r="E32" s="3">
@@ -8871,12 +8799,12 @@
       <c r="F32">
         <v>789</v>
       </c>
-      <c r="G32">
-        <f t="shared" si="0"/>
-        <v>2367</v>
+      <c r="G32" t="e">
+        <f>F32*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I32" s="28">
         <v>2019</v>
@@ -8884,29 +8812,27 @@
     </row>
     <row r="33" spans="1:9" ht="14">
       <c r="A33" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D33" s="3">
-        <v>0</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="D33" s="25"/>
       <c r="E33" s="3">
         <v>2</v>
       </c>
       <c r="F33">
         <v>865</v>
       </c>
-      <c r="G33">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G33" t="e">
+        <f>F33*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H33" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I33" s="28">
         <v>2019</v>
@@ -8917,26 +8843,24 @@
         <v>14</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D34" s="3">
-        <v>0</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="D34" s="25"/>
       <c r="E34" s="3">
         <v>0</v>
       </c>
       <c r="F34">
         <v>863</v>
       </c>
-      <c r="G34">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G34" t="e">
+        <f>F34*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H34" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I34" s="28">
         <v>2019</v>
@@ -8944,26 +8868,24 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D35" s="3">
-        <v>0</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="D35" s="25"/>
       <c r="E35" s="3">
         <v>2</v>
       </c>
-      <c r="G35">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G35" t="e">
+        <f>F35*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H35" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I35" s="28">
         <v>2019</v>
@@ -8974,26 +8896,24 @@
         <v>15</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D36" s="3">
-        <v>0</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="D36" s="25"/>
       <c r="E36" s="3">
         <v>0</v>
       </c>
       <c r="F36">
         <v>1136</v>
       </c>
-      <c r="G36">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G36" t="e">
+        <f>F36*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H36" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I36" s="28">
         <v>2019</v>
@@ -9004,12 +8924,12 @@
         <v>16</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D37" s="3">
+        <v>84</v>
+      </c>
+      <c r="D37" s="25">
         <v>1</v>
       </c>
       <c r="E37" s="3">
@@ -9018,12 +8938,12 @@
       <c r="F37">
         <v>1367</v>
       </c>
-      <c r="G37">
-        <f t="shared" si="0"/>
-        <v>1367</v>
+      <c r="G37" t="e">
+        <f>F37*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H37" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I37" s="28">
         <v>2019</v>
@@ -9034,26 +8954,24 @@
         <v>17</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D38" s="3">
-        <v>0</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="D38" s="25"/>
       <c r="E38" s="3">
         <v>3</v>
       </c>
       <c r="F38">
         <v>955</v>
       </c>
-      <c r="G38">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G38" t="e">
+        <f>F38*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H38" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I38" s="28">
         <v>2019</v>
@@ -9061,29 +8979,27 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D39" s="3">
-        <v>0</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="D39" s="25"/>
       <c r="E39" s="3">
         <v>5</v>
       </c>
       <c r="F39">
         <v>168</v>
       </c>
-      <c r="G39">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G39" t="e">
+        <f>F39*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H39" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I39" s="28">
         <v>2019</v>
@@ -9094,26 +9010,24 @@
         <v>18</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D40" s="3">
-        <v>0</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="D40" s="25"/>
       <c r="E40" s="3">
         <v>6</v>
       </c>
       <c r="F40">
         <v>1287</v>
       </c>
-      <c r="G40">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G40" t="e">
+        <f>F40*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H40" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I40" s="28">
         <v>2019</v>
@@ -9124,26 +9038,24 @@
         <v>19</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D41" s="3">
-        <v>0</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="D41" s="25"/>
       <c r="E41" s="3">
         <v>6</v>
       </c>
       <c r="F41">
         <v>1358</v>
       </c>
-      <c r="G41">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G41" t="e">
+        <f>F41*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H41" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I41" s="28">
         <v>2019</v>
@@ -9151,15 +9063,15 @@
     </row>
     <row r="42" spans="1:9" ht="14">
       <c r="A42" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D42" s="3">
+        <v>84</v>
+      </c>
+      <c r="D42" s="25">
         <v>1</v>
       </c>
       <c r="E42" s="3">
@@ -9168,12 +9080,12 @@
       <c r="F42">
         <v>1270</v>
       </c>
-      <c r="G42">
-        <f t="shared" si="0"/>
-        <v>1270</v>
+      <c r="G42" t="e">
+        <f>F42*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H42" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I42" s="28">
         <v>2019</v>
@@ -9181,29 +9093,27 @@
     </row>
     <row r="43" spans="1:9" ht="14">
       <c r="A43" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D43" s="3">
-        <v>0</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="D43" s="25"/>
       <c r="E43" s="3">
         <v>2</v>
       </c>
       <c r="F43">
         <v>1184</v>
       </c>
-      <c r="G43">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G43" t="e">
+        <f>F43*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H43" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I43" s="28">
         <v>2019</v>
@@ -9211,29 +9121,27 @@
     </row>
     <row r="44" spans="1:9" ht="14">
       <c r="A44" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D44" s="3">
-        <v>0</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="D44" s="25"/>
       <c r="E44" s="3">
         <v>1</v>
       </c>
       <c r="F44">
         <v>755</v>
       </c>
-      <c r="G44">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G44" t="e">
+        <f>F44*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H44" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I44" s="28">
         <v>2019</v>
@@ -9241,26 +9149,24 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D45" s="3">
-        <v>0</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="D45" s="25"/>
       <c r="E45" s="3">
         <v>3</v>
       </c>
-      <c r="G45">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G45" t="e">
+        <f>F45*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H45" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I45" s="28">
         <v>2019</v>
@@ -9268,26 +9174,24 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D46" s="3">
-        <v>0</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="D46" s="25"/>
       <c r="E46" s="3">
         <v>0</v>
       </c>
-      <c r="G46">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G46" t="e">
+        <f>F46*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H46" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I46" s="28">
         <v>2019</v>
@@ -9298,26 +9202,24 @@
         <v>20</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D47" s="3">
-        <v>0</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="D47" s="25"/>
       <c r="E47" s="3">
         <v>0</v>
       </c>
       <c r="F47">
         <v>984</v>
       </c>
-      <c r="G47">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G47" t="e">
+        <f>F47*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H47" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I47" s="28">
         <v>2019</v>
@@ -9328,26 +9230,24 @@
         <v>21</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D48" s="3">
-        <v>0</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="D48" s="25"/>
       <c r="E48" s="3">
         <v>10</v>
       </c>
       <c r="F48">
         <v>157</v>
       </c>
-      <c r="G48">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G48" t="e">
+        <f>F48*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H48" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I48" s="28">
         <v>2019</v>
@@ -9358,12 +9258,12 @@
         <v>22</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D49" s="3">
+        <v>84</v>
+      </c>
+      <c r="D49" s="25">
         <v>3</v>
       </c>
       <c r="E49" s="3">
@@ -9372,12 +9272,12 @@
       <c r="F49">
         <v>223</v>
       </c>
-      <c r="G49">
-        <f t="shared" si="0"/>
-        <v>669</v>
+      <c r="G49" t="e">
+        <f>F49*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H49" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I49" s="28">
         <v>2019</v>
@@ -9385,26 +9285,24 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D50" s="3">
-        <v>0</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="D50" s="25"/>
       <c r="E50" s="3">
         <v>2</v>
       </c>
-      <c r="G50">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G50" t="e">
+        <f>F50*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H50" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I50" s="28">
         <v>2019</v>
@@ -9412,29 +9310,27 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D51" s="3">
-        <v>0</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="D51" s="25"/>
       <c r="E51" s="3">
         <v>0</v>
       </c>
       <c r="F51">
         <v>484</v>
       </c>
-      <c r="G51">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G51" t="e">
+        <f>F51*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H51" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I51" s="28">
         <v>2019</v>
@@ -9442,27 +9338,25 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D52" s="3">
-        <v>0</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="D52" s="25"/>
       <c r="E52" s="3">
         <v>5</v>
       </c>
       <c r="F52" s="27"/>
-      <c r="G52">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G52" t="e">
+        <f>F52*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H52" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I52" s="28">
         <v>2019</v>
@@ -9470,29 +9364,27 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D53" s="3">
-        <v>0</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="D53" s="25"/>
       <c r="E53" s="3">
         <v>0</v>
       </c>
       <c r="F53">
         <v>769</v>
       </c>
-      <c r="G53">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G53" t="e">
+        <f>F53*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H53" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I53" s="28">
         <v>2019</v>
@@ -9500,27 +9392,25 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D54" s="3">
-        <v>0</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="D54" s="25"/>
       <c r="E54" s="3">
         <v>10</v>
       </c>
       <c r="F54" s="27"/>
-      <c r="G54">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G54" t="e">
+        <f>F54*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H54" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I54" s="28">
         <v>2019</v>
@@ -9528,27 +9418,27 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D55" s="3"/>
+        <v>84</v>
+      </c>
+      <c r="D55" s="25"/>
       <c r="E55" s="3">
         <v>0</v>
       </c>
       <c r="F55">
         <v>155</v>
       </c>
-      <c r="G55">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G55" t="e">
+        <f>F55*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H55" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I55" s="28">
         <v>2019</v>
@@ -9556,27 +9446,25 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B56" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D56" s="3">
-        <v>0</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="D56" s="25"/>
       <c r="E56" s="3">
         <v>17</v>
       </c>
       <c r="F56" s="27"/>
-      <c r="G56">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G56" t="e">
+        <f>F56*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H56" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I56" s="28">
         <v>2019</v>
@@ -9584,29 +9472,27 @@
     </row>
     <row r="57" spans="1:9" ht="14">
       <c r="A57" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C57" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D57" s="3">
-        <v>0</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="D57" s="25"/>
       <c r="E57" s="3">
         <v>0</v>
       </c>
       <c r="F57">
         <v>98</v>
       </c>
-      <c r="G57">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G57" t="e">
+        <f>F57*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H57" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I57" s="28">
         <v>2019</v>
@@ -9614,29 +9500,27 @@
     </row>
     <row r="58" spans="1:9" ht="14">
       <c r="A58" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D58" s="3">
-        <v>0</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="D58" s="25"/>
       <c r="E58" s="3">
         <v>0</v>
       </c>
       <c r="F58">
         <v>59</v>
       </c>
-      <c r="G58">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G58" t="e">
+        <f>F58*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H58" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I58" s="28">
         <v>2019</v>
@@ -9644,29 +9528,27 @@
     </row>
     <row r="59" spans="1:9" ht="14">
       <c r="A59" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D59" s="3">
-        <v>0</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="D59" s="25"/>
       <c r="E59" s="3">
         <v>0</v>
       </c>
       <c r="F59" s="27">
         <v>112</v>
       </c>
-      <c r="G59">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G59" t="e">
+        <f>F59*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H59" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I59" s="28">
         <v>2019</v>
@@ -9674,29 +9556,27 @@
     </row>
     <row r="60" spans="1:9" ht="14">
       <c r="A60" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D60" s="3">
-        <v>0</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="D60" s="25"/>
       <c r="E60" s="3">
         <v>0</v>
       </c>
       <c r="F60" s="27">
         <v>225</v>
       </c>
-      <c r="G60">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G60" t="e">
+        <f>F60*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H60" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I60" s="28">
         <v>2019</v>
@@ -9704,29 +9584,27 @@
     </row>
     <row r="61" spans="1:9" ht="14">
       <c r="A61" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B61" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D61" s="3">
-        <v>0</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="D61" s="25"/>
       <c r="E61" s="3">
         <v>0</v>
       </c>
       <c r="F61" s="27">
         <v>80</v>
       </c>
-      <c r="G61">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G61" t="e">
+        <f>F61*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H61" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I61" s="28">
         <v>2019</v>
@@ -9734,29 +9612,27 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B62" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D62" s="3">
-        <v>0</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="D62" s="25"/>
       <c r="E62" s="3">
         <v>0</v>
       </c>
       <c r="F62" s="27">
         <v>80</v>
       </c>
-      <c r="G62">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G62" t="e">
+        <f>F62*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H62" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I62" s="28">
         <v>2019</v>
@@ -9764,29 +9640,27 @@
     </row>
     <row r="63" spans="1:9" ht="14">
       <c r="A63" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B63" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D63" s="3">
-        <v>0</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="D63" s="25"/>
       <c r="E63" s="3">
         <v>0</v>
       </c>
       <c r="F63" s="27">
         <v>80</v>
       </c>
-      <c r="G63">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G63" t="e">
+        <f>F63*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H63" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I63" s="28">
         <v>2019</v>
@@ -9794,29 +9668,27 @@
     </row>
     <row r="64" spans="1:9" ht="14">
       <c r="A64" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D64" s="3">
-        <v>0</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="D64" s="25"/>
       <c r="E64" s="3">
         <v>0</v>
       </c>
       <c r="F64" s="27">
         <v>125</v>
       </c>
-      <c r="G64">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G64" t="e">
+        <f>F64*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H64" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I64" s="28">
         <v>2019</v>
@@ -9824,29 +9696,27 @@
     </row>
     <row r="65" spans="1:9" ht="14">
       <c r="A65" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B65" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D65" s="3">
-        <v>0</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="D65" s="25"/>
       <c r="E65" s="3">
         <v>0</v>
       </c>
       <c r="F65" s="27">
         <v>127</v>
       </c>
-      <c r="G65">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G65" t="e">
+        <f>F65*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H65" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I65" s="28">
         <v>2019</v>
@@ -9854,26 +9724,24 @@
     </row>
     <row r="66" spans="1:9" ht="14">
       <c r="A66" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B66" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D66" s="3">
-        <v>0</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="D66" s="25"/>
       <c r="E66" s="3">
         <v>0</v>
       </c>
-      <c r="G66">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G66" t="e">
+        <f>F66*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H66" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I66" s="28">
         <v>2019</v>
@@ -9881,29 +9749,27 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B67" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D67" s="3">
-        <v>0</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="D67" s="25"/>
       <c r="E67" s="3">
         <v>0</v>
       </c>
       <c r="F67" s="27">
         <v>30</v>
       </c>
-      <c r="G67">
-        <f t="shared" ref="G67:G72" si="1">F67*D67</f>
-        <v>0</v>
+      <c r="G67" t="e">
+        <f>F67*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H67" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I67" s="28">
         <v>2019</v>
@@ -9911,29 +9777,27 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B68" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D68" s="3">
-        <v>0</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="D68" s="25"/>
       <c r="E68" s="3">
         <v>3</v>
       </c>
       <c r="F68" s="27">
         <v>345</v>
       </c>
-      <c r="G68">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="G68" t="e">
+        <f>F68*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H68" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I68" s="28">
         <v>2019</v>
@@ -9941,29 +9805,27 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B69" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D69" s="3">
-        <v>0</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="D69" s="25"/>
       <c r="E69" s="3">
         <v>0</v>
       </c>
       <c r="F69">
         <v>48</v>
       </c>
-      <c r="G69">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="G69" t="e">
+        <f>F69*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H69" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I69" s="28">
         <v>2019</v>
@@ -9971,29 +9833,27 @@
     </row>
     <row r="70" spans="1:9" ht="14">
       <c r="A70" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B70" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D70" s="3">
-        <v>0</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="D70" s="25"/>
       <c r="E70" s="3">
         <v>10</v>
       </c>
       <c r="F70">
         <v>170</v>
       </c>
-      <c r="G70">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="G70" t="e">
+        <f>F70*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H70" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I70" s="28">
         <v>2019</v>
@@ -10001,26 +9861,26 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B71" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C71" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D71" s="3">
+        <v>84</v>
+      </c>
+      <c r="D71" s="25">
         <v>9</v>
       </c>
       <c r="E71" s="3">
         <v>10</v>
       </c>
-      <c r="G71">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="G71" t="e">
+        <f>F71*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H71" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I71" s="28">
         <v>2019</v>
@@ -10028,29 +9888,28 @@
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B72" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D72" s="3"/>
+        <v>84</v>
+      </c>
+      <c r="D72" s="25"/>
       <c r="E72" s="3"/>
-      <c r="G72">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="G72" t="e">
+        <f>F72*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H72" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I72" s="28">
         <v>2019</v>
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="D73" s="3"/>
       <c r="E73" s="3"/>
       <c r="I73" s="28"/>
     </row>
